--- a/medicine/Mort/Monument_aux_morts_de_Ribes/Monument_aux_morts_de_Ribes.xlsx
+++ b/medicine/Mort/Monument_aux_morts_de_Ribes/Monument_aux_morts_de_Ribes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument aux morts de Ribes est érigé dans la commune de Ribes située dans le département de l'Ardèche et la région Rhône-Alpes. 
 Le monument est constitué d'un jeune soldat, fusil à terre, en position d'attente, combattant de la Première Guerre mondiale qui se déroula de 1914 à 1918. C'est le premier conflit armé qui impliqua autant de pays à travers le monde. Les pertes humaines s’élevèrent à plus de 8 millions de morts et 6 millions d'invalides.
@@ -512,7 +524,9 @@
           <t>Descriptif</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sculpture de l'artiste local Louis Bresson (1896-1983), intitulée « Pour que vive la liberté » représentant un jeune soldat, fusil à terre, en position d'attente. La sculpture repose sur une mince plaque au sol et mesure environ 2 m de hauteur.
 </t>
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette sculpture, qui n'était pas destinée à être un monument aux morts, était une composition de Louis Bresson placée dans son hameau natal de la commune de Ribes. Après sa mort, la municipalité et la famille, en hommage à l'artiste et Ribes ne possédant pas de monuments aux morts, décidèrent de transformer l'œuvre en monument aux morts, le 19 mars 1994.
 </t>
@@ -574,9 +590,11 @@
           <t>Les victimes inscrites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le monument présente le nom des 20 soldats morts pour la France[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le monument présente le nom des 20 soldats morts pour la France
 à même la plaque support de la sculpture.
 ARIFON Joseph Emile Gabriel
 BASTIDE Henri Joseph Marius
@@ -626,6 +644,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
